--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Tgfb1-Tgfbr2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Tgfb1-Tgfbr2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>72.47636390323299</v>
+        <v>96.320746</v>
       </c>
       <c r="H2">
-        <v>72.47636390323299</v>
+        <v>288.962238</v>
       </c>
       <c r="I2">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="J2">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.0375747557458</v>
+        <v>28.21795633333333</v>
       </c>
       <c r="N2">
-        <v>21.0375747557458</v>
+        <v>84.653869</v>
       </c>
       <c r="O2">
-        <v>0.1692618942090072</v>
+        <v>0.2124568395711989</v>
       </c>
       <c r="P2">
-        <v>0.1692618942090072</v>
+        <v>0.212456839571199</v>
       </c>
       <c r="Q2">
-        <v>1524.726923638901</v>
+        <v>2717.974604622091</v>
       </c>
       <c r="R2">
-        <v>1524.726923638901</v>
+        <v>24461.77144159882</v>
       </c>
       <c r="S2">
-        <v>0.05603471697536488</v>
+        <v>0.08094232961542537</v>
       </c>
       <c r="T2">
-        <v>0.05603471697536488</v>
+        <v>0.08094232961542538</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>72.47636390323299</v>
+        <v>96.320746</v>
       </c>
       <c r="H3">
-        <v>72.47636390323299</v>
+        <v>288.962238</v>
       </c>
       <c r="I3">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="J3">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>63.0818615972562</v>
+        <v>63.95730733333333</v>
       </c>
       <c r="N3">
-        <v>63.0818615972562</v>
+        <v>191.871922</v>
       </c>
       <c r="O3">
-        <v>0.5075373710206688</v>
+        <v>0.4815432848151522</v>
       </c>
       <c r="P3">
-        <v>0.5075373710206688</v>
+        <v>0.4815432848151524</v>
       </c>
       <c r="Q3">
-        <v>4571.943956816119</v>
+        <v>6160.415554497937</v>
       </c>
       <c r="R3">
-        <v>4571.943956816119</v>
+        <v>55443.73999048144</v>
       </c>
       <c r="S3">
-        <v>0.1680219465371582</v>
+        <v>0.1834595457706627</v>
       </c>
       <c r="T3">
-        <v>0.1680219465371582</v>
+        <v>0.1834595457706628</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>72.47636390323299</v>
+        <v>96.320746</v>
       </c>
       <c r="H4">
-        <v>72.47636390323299</v>
+        <v>288.962238</v>
       </c>
       <c r="I4">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="J4">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.071921940978</v>
+        <v>27.47719633333334</v>
       </c>
       <c r="N4">
-        <v>27.071921940978</v>
+        <v>82.431589</v>
       </c>
       <c r="O4">
-        <v>0.2178124066490512</v>
+        <v>0.2068795565595709</v>
       </c>
       <c r="P4">
-        <v>0.2178124066490512</v>
+        <v>0.2068795565595709</v>
       </c>
       <c r="Q4">
-        <v>1962.074466154239</v>
+        <v>2646.624048815132</v>
       </c>
       <c r="R4">
-        <v>1962.074466154239</v>
+        <v>23819.61643933618</v>
       </c>
       <c r="S4">
-        <v>0.07210752672560593</v>
+        <v>0.07881748260745498</v>
       </c>
       <c r="T4">
-        <v>0.07210752672560593</v>
+        <v>0.078817482607455</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>72.47636390323299</v>
+        <v>96.320746</v>
       </c>
       <c r="H5">
-        <v>72.47636390323299</v>
+        <v>288.962238</v>
       </c>
       <c r="I5">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="J5">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.098723972075</v>
+        <v>13.164899</v>
       </c>
       <c r="N5">
-        <v>13.098723972075</v>
+        <v>39.494697</v>
       </c>
       <c r="O5">
-        <v>0.1053883281212728</v>
+        <v>0.09912031905407785</v>
       </c>
       <c r="P5">
-        <v>0.1053883281212728</v>
+        <v>0.09912031905407789</v>
       </c>
       <c r="Q5">
-        <v>949.3478852681092</v>
+        <v>1268.052892694654</v>
       </c>
       <c r="R5">
-        <v>949.3478852681092</v>
+        <v>11412.47603425189</v>
       </c>
       <c r="S5">
-        <v>0.03488915899458343</v>
+        <v>0.03776310309733571</v>
       </c>
       <c r="T5">
-        <v>0.03488915899458343</v>
+        <v>0.03776310309733572</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.6297709659693</v>
+        <v>18.46467533333333</v>
       </c>
       <c r="H6">
-        <v>17.6297709659693</v>
+        <v>55.394026</v>
       </c>
       <c r="I6">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="J6">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.0375747557458</v>
+        <v>28.21795633333333</v>
       </c>
       <c r="N6">
-        <v>21.0375747557458</v>
+        <v>84.653869</v>
       </c>
       <c r="O6">
-        <v>0.1692618942090072</v>
+        <v>0.2124568395711989</v>
       </c>
       <c r="P6">
-        <v>0.1692618942090072</v>
+        <v>0.212456839571199</v>
       </c>
       <c r="Q6">
-        <v>370.887624623256</v>
+        <v>521.035402265177</v>
       </c>
       <c r="R6">
-        <v>370.887624623256</v>
+        <v>4689.318620386593</v>
       </c>
       <c r="S6">
-        <v>0.0136303640692787</v>
+        <v>0.01551663477640093</v>
       </c>
       <c r="T6">
-        <v>0.0136303640692787</v>
+        <v>0.01551663477640093</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.6297709659693</v>
+        <v>18.46467533333333</v>
       </c>
       <c r="H7">
-        <v>17.6297709659693</v>
+        <v>55.394026</v>
       </c>
       <c r="I7">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="J7">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>63.0818615972562</v>
+        <v>63.95730733333333</v>
       </c>
       <c r="N7">
-        <v>63.0818615972562</v>
+        <v>191.871922</v>
       </c>
       <c r="O7">
-        <v>0.5075373710206688</v>
+        <v>0.4815432848151522</v>
       </c>
       <c r="P7">
-        <v>0.5075373710206688</v>
+        <v>0.4815432848151524</v>
       </c>
       <c r="Q7">
-        <v>1112.118772066601</v>
+        <v>1180.950915104219</v>
       </c>
       <c r="R7">
-        <v>1112.118772066601</v>
+        <v>10628.55823593797</v>
       </c>
       <c r="S7">
-        <v>0.04087109610881434</v>
+        <v>0.03516917268743011</v>
       </c>
       <c r="T7">
-        <v>0.04087109610881434</v>
+        <v>0.03516917268743012</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.6297709659693</v>
+        <v>18.46467533333333</v>
       </c>
       <c r="H8">
-        <v>17.6297709659693</v>
+        <v>55.394026</v>
       </c>
       <c r="I8">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="J8">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.071921940978</v>
+        <v>27.47719633333334</v>
       </c>
       <c r="N8">
-        <v>27.071921940978</v>
+        <v>82.431589</v>
       </c>
       <c r="O8">
-        <v>0.2178124066490512</v>
+        <v>0.2068795565595709</v>
       </c>
       <c r="P8">
-        <v>0.2178124066490512</v>
+        <v>0.2068795565595709</v>
       </c>
       <c r="Q8">
-        <v>477.2717834280412</v>
+        <v>507.3575093652571</v>
       </c>
       <c r="R8">
-        <v>477.2717834280412</v>
+        <v>4566.217584287314</v>
       </c>
       <c r="S8">
-        <v>0.0175400518545914</v>
+        <v>0.01510930186252194</v>
       </c>
       <c r="T8">
-        <v>0.0175400518545914</v>
+        <v>0.01510930186252194</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.6297709659693</v>
+        <v>18.46467533333333</v>
       </c>
       <c r="H9">
-        <v>17.6297709659693</v>
+        <v>55.394026</v>
       </c>
       <c r="I9">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="J9">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.098723972075</v>
+        <v>13.164899</v>
       </c>
       <c r="N9">
-        <v>13.098723972075</v>
+        <v>39.494697</v>
       </c>
       <c r="O9">
-        <v>0.1053883281212728</v>
+        <v>0.09912031905407785</v>
       </c>
       <c r="P9">
-        <v>0.1053883281212728</v>
+        <v>0.09912031905407789</v>
       </c>
       <c r="Q9">
-        <v>230.9275035741339</v>
+        <v>243.0855858311247</v>
       </c>
       <c r="R9">
-        <v>230.9275035741339</v>
+        <v>2187.770272480122</v>
       </c>
       <c r="S9">
-        <v>0.008486737594769927</v>
+        <v>0.007239182286560552</v>
       </c>
       <c r="T9">
-        <v>0.008486737594769927</v>
+        <v>0.007239182286560555</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>114.377483679854</v>
+        <v>122.909391</v>
       </c>
       <c r="H10">
-        <v>114.377483679854</v>
+        <v>368.728173</v>
       </c>
       <c r="I10">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="J10">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.0375747557458</v>
+        <v>28.21795633333333</v>
       </c>
       <c r="N10">
-        <v>21.0375747557458</v>
+        <v>84.653869</v>
       </c>
       <c r="O10">
-        <v>0.1692618942090072</v>
+        <v>0.2124568395711989</v>
       </c>
       <c r="P10">
-        <v>0.1692618942090072</v>
+        <v>0.212456839571199</v>
       </c>
       <c r="Q10">
-        <v>2406.224863289024</v>
+        <v>3468.251828194593</v>
       </c>
       <c r="R10">
-        <v>2406.224863289024</v>
+        <v>31214.26645375133</v>
       </c>
       <c r="S10">
-        <v>0.0884303458560942</v>
+        <v>0.1032858740437205</v>
       </c>
       <c r="T10">
-        <v>0.0884303458560942</v>
+        <v>0.1032858740437205</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>114.377483679854</v>
+        <v>122.909391</v>
       </c>
       <c r="H11">
-        <v>114.377483679854</v>
+        <v>368.728173</v>
       </c>
       <c r="I11">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="J11">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>63.0818615972562</v>
+        <v>63.95730733333333</v>
       </c>
       <c r="N11">
-        <v>63.0818615972562</v>
+        <v>191.871922</v>
       </c>
       <c r="O11">
-        <v>0.5075373710206688</v>
+        <v>0.4815432848151522</v>
       </c>
       <c r="P11">
-        <v>0.5075373710206688</v>
+        <v>0.4815432848151524</v>
       </c>
       <c r="Q11">
-        <v>7215.144595334979</v>
+        <v>7860.953694339833</v>
       </c>
       <c r="R11">
-        <v>7215.144595334979</v>
+        <v>70748.58324905849</v>
       </c>
       <c r="S11">
-        <v>0.265161307948202</v>
+        <v>0.2341022259504591</v>
       </c>
       <c r="T11">
-        <v>0.265161307948202</v>
+        <v>0.2341022259504591</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>114.377483679854</v>
+        <v>122.909391</v>
       </c>
       <c r="H12">
-        <v>114.377483679854</v>
+        <v>368.728173</v>
       </c>
       <c r="I12">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="J12">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>27.071921940978</v>
+        <v>27.47719633333334</v>
       </c>
       <c r="N12">
-        <v>27.071921940978</v>
+        <v>82.431589</v>
       </c>
       <c r="O12">
-        <v>0.2178124066490512</v>
+        <v>0.2068795565595709</v>
       </c>
       <c r="P12">
-        <v>0.2178124066490512</v>
+        <v>0.2068795565595709</v>
       </c>
       <c r="Q12">
-        <v>3096.418309986493</v>
+        <v>3377.205467717433</v>
       </c>
       <c r="R12">
-        <v>3096.418309986493</v>
+        <v>30394.84920945689</v>
       </c>
       <c r="S12">
-        <v>0.1137954088351379</v>
+        <v>0.1005744783936306</v>
       </c>
       <c r="T12">
-        <v>0.1137954088351379</v>
+        <v>0.1005744783936306</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>114.377483679854</v>
+        <v>122.909391</v>
       </c>
       <c r="H13">
-        <v>114.377483679854</v>
+        <v>368.728173</v>
       </c>
       <c r="I13">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="J13">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.098723972075</v>
+        <v>13.164899</v>
       </c>
       <c r="N13">
-        <v>13.098723972075</v>
+        <v>39.494697</v>
       </c>
       <c r="O13">
-        <v>0.1053883281212728</v>
+        <v>0.09912031905407785</v>
       </c>
       <c r="P13">
-        <v>0.1053883281212728</v>
+        <v>0.09912031905407789</v>
       </c>
       <c r="Q13">
-        <v>1498.199087342921</v>
+        <v>1618.089718666509</v>
       </c>
       <c r="R13">
-        <v>1498.199087342921</v>
+        <v>14562.80746799858</v>
       </c>
       <c r="S13">
-        <v>0.05505980154902321</v>
+        <v>0.04818733447064192</v>
       </c>
       <c r="T13">
-        <v>0.05505980154902321</v>
+        <v>0.04818733447064194</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.4429202435963</v>
+        <v>15.127183</v>
       </c>
       <c r="H14">
-        <v>14.4429202435963</v>
+        <v>45.381549</v>
       </c>
       <c r="I14">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="J14">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>21.0375747557458</v>
+        <v>28.21795633333333</v>
       </c>
       <c r="N14">
-        <v>21.0375747557458</v>
+        <v>84.653869</v>
       </c>
       <c r="O14">
-        <v>0.1692618942090072</v>
+        <v>0.2124568395711989</v>
       </c>
       <c r="P14">
-        <v>0.1692618942090072</v>
+        <v>0.212456839571199</v>
       </c>
       <c r="Q14">
-        <v>303.8440143159315</v>
+        <v>426.8581893403423</v>
       </c>
       <c r="R14">
-        <v>303.8440143159315</v>
+        <v>3841.723704063081</v>
       </c>
       <c r="S14">
-        <v>0.01116646730826939</v>
+        <v>0.01271200113565212</v>
       </c>
       <c r="T14">
-        <v>0.01116646730826939</v>
+        <v>0.01271200113565212</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.4429202435963</v>
+        <v>15.127183</v>
       </c>
       <c r="H15">
-        <v>14.4429202435963</v>
+        <v>45.381549</v>
       </c>
       <c r="I15">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="J15">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>63.0818615972562</v>
+        <v>63.95730733333333</v>
       </c>
       <c r="N15">
-        <v>63.0818615972562</v>
+        <v>191.871922</v>
       </c>
       <c r="O15">
-        <v>0.5075373710206688</v>
+        <v>0.4815432848151522</v>
       </c>
       <c r="P15">
-        <v>0.5075373710206688</v>
+        <v>0.4815432848151524</v>
       </c>
       <c r="Q15">
-        <v>911.0862958667516</v>
+        <v>967.4938922185753</v>
       </c>
       <c r="R15">
-        <v>911.0862958667516</v>
+        <v>8707.445029967177</v>
       </c>
       <c r="S15">
-        <v>0.0334830204264942</v>
+        <v>0.02881234040660037</v>
       </c>
       <c r="T15">
-        <v>0.0334830204264942</v>
+        <v>0.02881234040660037</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.4429202435963</v>
+        <v>15.127183</v>
       </c>
       <c r="H16">
-        <v>14.4429202435963</v>
+        <v>45.381549</v>
       </c>
       <c r="I16">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="J16">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>27.071921940978</v>
+        <v>27.47719633333334</v>
       </c>
       <c r="N16">
-        <v>27.071921940978</v>
+        <v>82.431589</v>
       </c>
       <c r="O16">
-        <v>0.2178124066490512</v>
+        <v>0.2068795565595709</v>
       </c>
       <c r="P16">
-        <v>0.2178124066490512</v>
+        <v>0.2068795565595709</v>
       </c>
       <c r="Q16">
-        <v>390.99760943441</v>
+        <v>415.6525772612624</v>
       </c>
       <c r="R16">
-        <v>390.99760943441</v>
+        <v>3740.873195351361</v>
       </c>
       <c r="S16">
-        <v>0.01436941923371599</v>
+        <v>0.01237829369596337</v>
       </c>
       <c r="T16">
-        <v>0.01436941923371599</v>
+        <v>0.01237829369596337</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.4429202435963</v>
+        <v>15.127183</v>
       </c>
       <c r="H17">
-        <v>14.4429202435963</v>
+        <v>45.381549</v>
       </c>
       <c r="I17">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="J17">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.098723972075</v>
+        <v>13.164899</v>
       </c>
       <c r="N17">
-        <v>13.098723972075</v>
+        <v>39.494697</v>
       </c>
       <c r="O17">
-        <v>0.1053883281212728</v>
+        <v>0.09912031905407785</v>
       </c>
       <c r="P17">
-        <v>0.1053883281212728</v>
+        <v>0.09912031905407789</v>
       </c>
       <c r="Q17">
-        <v>189.1838256215621</v>
+        <v>199.147836349517</v>
       </c>
       <c r="R17">
-        <v>189.1838256215621</v>
+        <v>1792.330527145653</v>
       </c>
       <c r="S17">
-        <v>0.006952629982896274</v>
+        <v>0.005930699199539671</v>
       </c>
       <c r="T17">
-        <v>0.006952629982896274</v>
+        <v>0.005930699199539674</v>
       </c>
     </row>
   </sheetData>
